--- a/data/HRDataset_Cleaned.xlsx
+++ b/data/HRDataset_Cleaned.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="HRDataset" sheetId="1" r:id="rId1"/>
@@ -2331,142 +2331,6 @@
   </cellStyles>
   <dxfs count="72">
     <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2556,6 +2420,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2657,6 +2525,138 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="179" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="179" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="179" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="179" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -16118,80 +16118,80 @@
     <dataField name="Count of EmpID" fld="1" subtotal="count" showDataAs="percentOfRow" baseField="29" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="20">
-    <format dxfId="19">
+    <format dxfId="60">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="59">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="58">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="57">
       <pivotArea field="22" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="56">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="55">
       <pivotArea field="29" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="29" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="22" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="50">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="49">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="48">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="47">
       <pivotArea field="22" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="46">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="45">
       <pivotArea field="29" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="29" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="22" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -16276,16 +16276,16 @@
     <dataField name="Count of EmpID" fld="1" subtotal="count" showDataAs="percentOfTotal" baseField="22" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="28">
+    <format dxfId="68">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="67">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="66">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="65">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -16299,57 +16299,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DATA_Table" displayName="DATA_Table" ref="A1:AN312" totalsRowShown="0" headerRowDxfId="29" dataDxfId="32" headerRowBorderDxfId="30" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DATA_Table" displayName="DATA_Table" ref="A1:AN312" totalsRowShown="0" headerRowDxfId="69" dataDxfId="0" headerRowBorderDxfId="70" tableBorderDxfId="71">
   <autoFilter ref="A1:AN312"/>
   <tableColumns count="40">
-    <tableColumn id="1" name="Employee_Name" dataDxfId="71"/>
-    <tableColumn id="2" name="EmpID" dataDxfId="70"/>
-    <tableColumn id="3" name="MarriedID" dataDxfId="69"/>
-    <tableColumn id="4" name="MaritalStatusID" dataDxfId="68"/>
-    <tableColumn id="5" name="GenderID" dataDxfId="67"/>
-    <tableColumn id="6" name="EmpStatusID" dataDxfId="66"/>
-    <tableColumn id="7" name="DeptID" dataDxfId="65"/>
-    <tableColumn id="8" name="PerfScoreID" dataDxfId="64"/>
-    <tableColumn id="9" name="FromDiversityJobFairID" dataDxfId="63"/>
-    <tableColumn id="10" name="Salary" dataDxfId="62"/>
-    <tableColumn id="11" name="Termd" dataDxfId="61"/>
-    <tableColumn id="12" name="PositionID" dataDxfId="60"/>
-    <tableColumn id="13" name="Position" dataDxfId="59"/>
-    <tableColumn id="14" name="State" dataDxfId="58"/>
-    <tableColumn id="15" name="Zip" dataDxfId="57"/>
-    <tableColumn id="16" name="AGE" dataDxfId="56">
+    <tableColumn id="1" name="Employee_Name" dataDxfId="40"/>
+    <tableColumn id="2" name="EmpID" dataDxfId="39"/>
+    <tableColumn id="3" name="MarriedID" dataDxfId="38"/>
+    <tableColumn id="4" name="MaritalStatusID" dataDxfId="37"/>
+    <tableColumn id="5" name="GenderID" dataDxfId="36"/>
+    <tableColumn id="6" name="EmpStatusID" dataDxfId="35"/>
+    <tableColumn id="7" name="DeptID" dataDxfId="34"/>
+    <tableColumn id="8" name="PerfScoreID" dataDxfId="33"/>
+    <tableColumn id="9" name="FromDiversityJobFairID" dataDxfId="32"/>
+    <tableColumn id="10" name="Salary" dataDxfId="31"/>
+    <tableColumn id="11" name="Termd" dataDxfId="30"/>
+    <tableColumn id="12" name="PositionID" dataDxfId="29"/>
+    <tableColumn id="13" name="Position" dataDxfId="28"/>
+    <tableColumn id="14" name="State" dataDxfId="27"/>
+    <tableColumn id="15" name="Zip" dataDxfId="26"/>
+    <tableColumn id="16" name="AGE" dataDxfId="25">
       <calculatedColumnFormula>INT((TODAY()-Q2)/365.25)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="DOB" dataDxfId="55"/>
-    <tableColumn id="18" name="Sex" dataDxfId="54"/>
-    <tableColumn id="19" name="MaritalDesc" dataDxfId="53"/>
-    <tableColumn id="20" name="CitizenDesc" dataDxfId="52"/>
-    <tableColumn id="21" name="HispanicLatino" dataDxfId="51"/>
-    <tableColumn id="22" name="RaceDesc" dataDxfId="50"/>
-    <tableColumn id="23" name="Attrition" dataDxfId="49">
+    <tableColumn id="17" name="DOB" dataDxfId="24"/>
+    <tableColumn id="18" name="Sex" dataDxfId="23"/>
+    <tableColumn id="19" name="MaritalDesc" dataDxfId="22"/>
+    <tableColumn id="20" name="CitizenDesc" dataDxfId="21"/>
+    <tableColumn id="21" name="HispanicLatino" dataDxfId="20"/>
+    <tableColumn id="22" name="RaceDesc" dataDxfId="19"/>
+    <tableColumn id="23" name="Attrition" dataDxfId="18">
       <calculatedColumnFormula xml:space="preserve"> IF(Y2 ="", "NO", "YES")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="DateofHire" dataDxfId="48"/>
-    <tableColumn id="25" name="DateofTermination" dataDxfId="47"/>
-    <tableColumn id="40" name="Tenure Buckets" dataDxfId="24">
+    <tableColumn id="24" name="DateofHire" dataDxfId="17"/>
+    <tableColumn id="25" name="DateofTermination" dataDxfId="16"/>
+    <tableColumn id="40" name="Tenure Buckets" dataDxfId="15">
       <calculatedColumnFormula>IF(AA2&lt;2, "0-2 yrs", IF(AA2&lt;=5, "2-5 yrs", "5+ yrs"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Tenure" dataDxfId="46">
+    <tableColumn id="26" name="Tenure" dataDxfId="14">
       <calculatedColumnFormula>ROUND((IF(Y2="", TODAY(), Y2) - X2)/365.25, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="TermReason" dataDxfId="45"/>
-    <tableColumn id="28" name="EmploymentStatus" dataDxfId="44"/>
-    <tableColumn id="29" name="Department" dataDxfId="43"/>
-    <tableColumn id="30" name="ManagerName" dataDxfId="42"/>
-    <tableColumn id="31" name="ManagerID" dataDxfId="41"/>
-    <tableColumn id="32" name="RecruitmentSource" dataDxfId="40"/>
-    <tableColumn id="33" name="PerformanceScore" dataDxfId="39"/>
-    <tableColumn id="34" name="EngagementSurvey" dataDxfId="38"/>
-    <tableColumn id="35" name="EmpSatisfaction" dataDxfId="37"/>
-    <tableColumn id="36" name="SpecialProjectsCount" dataDxfId="36"/>
-    <tableColumn id="37" name="LastPerformanceReview_Date" dataDxfId="35"/>
-    <tableColumn id="38" name="DaysLateLast30" dataDxfId="34"/>
-    <tableColumn id="39" name="Absences" dataDxfId="33"/>
+    <tableColumn id="27" name="TermReason" dataDxfId="13"/>
+    <tableColumn id="28" name="EmploymentStatus" dataDxfId="12"/>
+    <tableColumn id="29" name="Department" dataDxfId="11"/>
+    <tableColumn id="30" name="ManagerName" dataDxfId="10"/>
+    <tableColumn id="31" name="ManagerID" dataDxfId="9"/>
+    <tableColumn id="32" name="RecruitmentSource" dataDxfId="8"/>
+    <tableColumn id="33" name="PerformanceScore" dataDxfId="7"/>
+    <tableColumn id="34" name="EngagementSurvey" dataDxfId="6"/>
+    <tableColumn id="35" name="EmpSatisfaction" dataDxfId="5"/>
+    <tableColumn id="36" name="SpecialProjectsCount" dataDxfId="4"/>
+    <tableColumn id="37" name="LastPerformanceReview_Date" dataDxfId="3"/>
+    <tableColumn id="38" name="DaysLateLast30" dataDxfId="2"/>
+    <tableColumn id="39" name="Absences" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16620,8 +16620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN312"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16649,7 +16649,7 @@
     <col min="26" max="26" width="19.44140625" style="8" customWidth="1"/>
     <col min="27" max="27" width="15.21875" customWidth="1"/>
     <col min="28" max="28" width="16.77734375" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="14.6640625" customWidth="1"/>
+    <col min="29" max="29" width="21" customWidth="1"/>
     <col min="30" max="30" width="16.33203125" customWidth="1"/>
     <col min="31" max="31" width="14.6640625" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="17.21875" hidden="1" customWidth="1"/>
@@ -16659,7 +16659,8 @@
     <col min="36" max="36" width="19.44140625" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="20.44140625" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="24" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="11.5546875" customWidth="1"/>
+    <col min="39" max="39" width="15.77734375" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
@@ -55553,8 +55554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
